--- a/order_generation/PO_excel/B10-ZMS3D-NEW.xlsx
+++ b/order_generation/PO_excel/B10-ZMS3D-NEW.xlsx
@@ -1002,6 +1002,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1266825" cy="1266825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1410,7 +1435,11 @@
           <t>订单号</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr"/>
+      <c r="G3" s="20" t="inlineStr">
+        <is>
+          <t>B10-ZMS3D-NEW</t>
+        </is>
+      </c>
       <c r="H3" s="20" t="n"/>
     </row>
     <row r="4" ht="18.75" customFormat="1" customHeight="1" s="1">
@@ -1434,7 +1463,7 @@
       </c>
       <c r="G4" s="22" t="inlineStr">
         <is>
-          <t>2025年09月02日</t>
+          <t>2025年09月03日</t>
         </is>
       </c>
       <c r="H4" s="20" t="n"/>
@@ -1503,17 +1532,13 @@
       </c>
       <c r="H6" s="26" t="n"/>
     </row>
-    <row r="7" ht="100.15" customFormat="1" customHeight="1" s="2">
+    <row r="7" ht="100" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>ST1112</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[图片未找到] </t>
-        </is>
-      </c>
+          <t>B10-ZMS3D-NEW</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="n"/>
       <c r="C7" s="28" t="inlineStr">
         <is>
           <t>榉木硬鬃，黑色哑光漆，产品尺寸21.3*2.9*1cm，100%猪鬃毛，长2cm，手柄雕刻LOGO：ecoed 2个头尾摆放入我司供彩盒，放入小清洁梳，外盒贴不干胶，指定数量直接入外箱 彩盒尺寸：5.5*4.5*22.7cm</t>
@@ -1634,7 +1659,7 @@
       </c>
       <c r="B14" s="43" t="inlineStr">
         <is>
-          <t>2025年09月17日</t>
+          <t>2025年09月18日</t>
         </is>
       </c>
       <c r="C14" s="44" t="n"/>
